--- a/test-data/Shopper_Insight.xlsx
+++ b/test-data/Shopper_Insight.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_BY_main2\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF8BDE7-F77B-4EEE-B46A-2E7BCD6A2F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23641A5B-68E2-48EC-B84E-DCA4A90FC986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="343" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="343" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="57">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -120,12 +120,6 @@
     <t>ShopperInsight_TC07</t>
   </si>
   <si>
-    <t>ganeshb.poojary@jda.com</t>
-  </si>
-  <si>
-    <t>Phantoon*1984a</t>
-  </si>
-  <si>
     <t>https://app.powerbi.com/groups/me/reports/6fca069d-2728-405b-ac76-cc787d7d0826/ReportSection52d89710673186d9baa5</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>TC07_Market Basket Analysis_Filter_Category_Check if the drop down has data, Search option</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>goto_Tab_MarketBasketAnalysis_Shopper</t>
   </si>
   <si>
@@ -198,23 +189,31 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>validateDropDownHasMultiSelect_Shopper</t>
   </si>
   <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>ShopperInsight_TC08</t>
+  </si>
+  <si>
+    <t>ShopperInsight_TC09</t>
+  </si>
+  <si>
+    <t>ShopperInsight_TC10</t>
+  </si>
+  <si>
+    <t>ShopperInsight_TC11</t>
+  </si>
+  <si>
+    <t>ShopperInsight_TC12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,18 +737,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="109.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="18.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="4" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="109.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,146 +776,128 @@
         <v>20</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="25">
         <v>1</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -1383,12 +1364,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="78.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="55.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="12.0" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="103.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="78.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="103.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1412,7 +1393,7 @@
     </row>
     <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1423,10 +1404,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -1435,13 +1416,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -1450,13 +1431,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -1465,13 +1446,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -1480,13 +1461,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -1495,13 +1476,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1509,18 +1490,18 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1531,10 +1512,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -1543,13 +1524,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -1558,13 +1539,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -1573,13 +1554,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -1588,13 +1569,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -1603,13 +1584,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,18 +1598,18 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1639,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="10"/>
     </row>
@@ -1651,13 +1632,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -1666,13 +1647,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -1681,13 +1662,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="10"/>
     </row>
@@ -1696,13 +1677,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -1711,13 +1692,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,18 +1706,18 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1747,10 +1728,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -1759,13 +1740,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -1774,13 +1755,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E29" s="10"/>
     </row>
@@ -1789,13 +1770,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E30" s="10"/>
     </row>
@@ -1804,13 +1785,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -1819,13 +1800,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,18 +1814,18 @@
         <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1855,10 +1836,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -1867,13 +1848,13 @@
         <v>24</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -1882,13 +1863,13 @@
         <v>24</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -1897,13 +1878,13 @@
         <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E38" s="10"/>
     </row>
@@ -1912,13 +1893,13 @@
         <v>24</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -1927,13 +1908,13 @@
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,18 +1922,18 @@
         <v>24</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1963,10 +1944,10 @@
         <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E43" s="10"/>
     </row>
@@ -1975,13 +1956,13 @@
         <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E44" s="10"/>
     </row>
@@ -1990,13 +1971,13 @@
         <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E45" s="10"/>
     </row>
@@ -2005,13 +1986,13 @@
         <v>25</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E46" s="10"/>
     </row>
@@ -2020,13 +2001,13 @@
         <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E47" s="10"/>
     </row>
@@ -2035,18 +2016,18 @@
         <v>25</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2057,10 +2038,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E50" s="10"/>
     </row>
@@ -2069,13 +2050,13 @@
         <v>26</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E51" s="10"/>
     </row>
@@ -2084,13 +2065,13 @@
         <v>26</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E52" s="10"/>
     </row>
@@ -2099,13 +2080,13 @@
         <v>26</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E53" s="10"/>
     </row>
@@ -2114,13 +2095,13 @@
         <v>26</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E54" s="10"/>
     </row>
@@ -2129,13 +2110,13 @@
         <v>26</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2148,26 +2129,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74529C94-D0E7-4C05-8D75-C6E7A59047DA}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="47.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="25.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="42.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="28.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="4" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="4" width="24.42578125" collapsed="true"/>
-    <col min="13" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2190,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>14</v>
@@ -2223,16 +2204,12 @@
         <v>19</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2246,16 +2223,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="19"/>
@@ -2272,16 +2245,12 @@
         <v>19</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -2297,16 +2266,12 @@
         <v>19</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2320,16 +2285,12 @@
         <v>19</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2343,16 +2304,12 @@
         <v>19</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2366,16 +2323,12 @@
         <v>19</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
